--- a/examples/children_fav_games/schema.xlsx
+++ b/examples/children_fav_games/schema.xlsx
@@ -1,290 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="!!_Schema" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Schema" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Schema'!$A$2:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
-  <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-10 21:34:50' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Name</t>
-  </si>
-  <si>
-    <t>!Type</t>
-  </si>
-  <si>
-    <t>!Parent</t>
-  </si>
-  <si>
-    <t>!Format</t>
-  </si>
-  <si>
-    <t>!Verbose name</t>
-  </si>
-  <si>
-    <t>!Verbose name plural</t>
-  </si>
-  <si>
-    <t>!Description</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>String(unique=True, primary=True)</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Enum(['female', 'male'])</t>
-  </si>
-  <si>
-    <t>parents</t>
-  </si>
-  <si>
-    <t>ManyToMany('Parent', related_name='children')</t>
-  </si>
-  <si>
-    <t>favorite_video_game</t>
-  </si>
-  <si>
-    <t>ManyToOne('Game', related_name='children')</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>multiple_cells</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -597,162 +502,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -807,11 +712,6 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1098,293 +998,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="7" width="15.7133333333333" customWidth="1"/>
-    <col min="8" max="16384" width="9" hidden="1" customWidth="1"/>
+    <col width="15.7133333333333" customWidth="1" min="1" max="7"/>
+    <col hidden="1" width="9" customWidth="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-10 21:34:50' objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>!Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>!Type</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>!Parent</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>!Format</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>!Verbose name</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>!Verbose name plural</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>!Description</t>
+        </is>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3"/>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>String(unique=True, primary=True)</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3"/>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>String(unique=True, primary=True)</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Enum(['female', 'male'])</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>ManyToMany('Parent', related_name='children')</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>favorite_video_game</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>ManyToOne('Game', related_name='children')</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3"/>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>multiple_cells</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>String(unique=True, primary=True)</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G15">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:G15"/>
   <hyperlinks>
-    <hyperlink ref="A3" location="'!!Parent'!A1" display="Parent" tooltip="Click to view parent"/>
-    <hyperlink ref="A6" location="'!!Child'!A1" display="Child" tooltip="Click to view child"/>
+    <hyperlink ref="A3" location="'!!Parent'!A1" tooltip="Click to view parent" display="Parent"/>
+    <hyperlink ref="A6" location="'!!Child'!A1" tooltip="Click to view child" display="Child"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>